--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_0_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_0_square_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.73000000000058</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>5.921189464667501e-16</v>
+        <v>5.657187386625001e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>52.87703120037395</v>
+        <v>48.04868932699065</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[44.395431765357564, 61.358630635390334]</t>
+          <t>[39.24213368426864, 56.85524496971266]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.666710817219811</v>
+        <v>1.66671081721981</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4906055233248887, 1.8428161111147334]</t>
+          <t>[1.46544762419704, 1.8679740102425804]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>65.36064110496906</v>
+        <v>65.41415439512311</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[59.777714042975276, 70.94356816696285]</t>
+          <t>[59.85210491132517, 70.97620387892104]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.09575575575621</v>
+        <v>18.90472472472515</v>
       </c>
       <c r="X2" t="n">
-        <v>18.36730730730775</v>
+        <v>18.08054054054095</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.82420420420467</v>
+        <v>19.72890890890936</v>
       </c>
     </row>
     <row r="3">
@@ -652,55 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.25000000000035</v>
+        <v>24.5800000000004</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.532107773982716e-14</v>
+        <v>1.46960221769632e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>6.409966896892413e-14</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.3232903404564496</v>
-      </c>
+        <v>5.367860351224389e-12</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>54.54567628594631</v>
+        <v>51.84731901909259</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[39.03824439607139, 70.05310817582122]</t>
+          <t>[35.50179658660899, 68.1928414515762]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.221180934152244e-10</v>
+        <v>4.125253916242855e-09</v>
       </c>
       <c r="N3" t="n">
-        <v>1.221180934152244e-10</v>
+        <v>4.125253916242855e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.195000208572694</v>
+        <v>-0.5031579825569237</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.496894998106848, -0.8931054190385392]</t>
+          <t>[-0.8427896207828471, -0.16352634433100022]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.086686296503103e-12</v>
+        <v>0.003969598243227956</v>
       </c>
       <c r="R3" t="n">
-        <v>1.086686296503103e-12</v>
+        <v>0.003969598243227956</v>
       </c>
       <c r="S3" t="n">
-        <v>63.45989314471327</v>
+        <v>62.73509323844965</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[54.92785404468759, 71.99193224473895]</t>
+          <t>[53.760133263172065, 71.71005321372724]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.612112112112175</v>
+        <v>1.968368368368399</v>
       </c>
       <c r="X3" t="n">
-        <v>3.446946946946993</v>
+        <v>0.6397197197197289</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.777277277277358</v>
+        <v>3.297017017017069</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_0_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_0_square_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.73000000000058</v>
+        <v>25.60000000000056</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>5.657187386625001e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>4.800964430811487e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7471119447266411</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>48.04868932699065</v>
+        <v>52.56145996235372</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[39.24213368426864, 56.85524496971266]</t>
+          <t>[42.994491079032166, 62.12842884567528]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.66671081721981</v>
+        <v>1.389973926813502</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.46544762419704, 1.8679740102425804]</t>
+          <t>[1.2012896833546556, 1.5786581702723481]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>65.41415439512311</v>
+        <v>59.62413039299162</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[59.85210491132517, 70.97620387892104]</t>
+          <t>[53.99451079478784, 65.25374999119539]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.90472472472515</v>
+        <v>19.93673673673717</v>
       </c>
       <c r="X2" t="n">
-        <v>18.08054054054095</v>
+        <v>19.16796796796839</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.72890890890936</v>
+        <v>20.70550550550596</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.5800000000004</v>
+        <v>25.37000000000053</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.46960221769632e-12</v>
+        <v>2.468941717737039e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>5.367860351224389e-12</v>
+        <v>6.762268456439192e-09</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>51.84731901909259</v>
+        <v>45.31373620888952</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[35.50179658660899, 68.1928414515762]</t>
+          <t>[29.24996018500653, 61.3775122327725]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.125253916242855e-09</v>
+        <v>1.210047886335275e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>4.125253916242855e-09</v>
+        <v>1.210047886335275e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.5031579825569237</v>
+        <v>1.301921279866041</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.8427896207828471, -0.16352634433100022]</t>
+          <t>[0.874236994692656, 1.7296055650394253]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.003969598243227956</v>
+        <v>1.447602926418767e-08</v>
       </c>
       <c r="R3" t="n">
-        <v>0.003969598243227956</v>
+        <v>1.447602926418767e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>62.73509323844965</v>
+        <v>70.43564814066306</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[53.760133263172065, 71.71005321372724]</t>
+          <t>[60.82423911877174, 80.04705716255438]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.968368368368399</v>
+        <v>20.11315315315357</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6397197197197289</v>
+        <v>18.38626626626665</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.297017017017069</v>
+        <v>21.84004004004049</v>
       </c>
     </row>
   </sheetData>
